--- a/Session Plan.xlsx
+++ b/Session Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\OneDrive\Documents\GitHub\SQL_0to100_in-16_hours\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117AA5C7-1A00-4C97-AAD1-C984A3BF8545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEB2872-B439-4BC2-9519-797270380A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3853DD20-82C8-408B-9BE9-FB6B1842D683}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{3853DD20-82C8-408B-9BE9-FB6B1842D683}"/>
   </bookViews>
   <sheets>
     <sheet name="Session Plan" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="86">
   <si>
     <t>Session</t>
   </si>
@@ -274,16 +274,7 @@
     <t>Topics</t>
   </si>
   <si>
-    <t>Commitement</t>
-  </si>
-  <si>
     <t>16 hrs of Workshop</t>
-  </si>
-  <si>
-    <t>2 hrs per weekend</t>
-  </si>
-  <si>
-    <t>3 hrs over the weekdays</t>
   </si>
   <si>
     <t>Install Local SQL Server +
@@ -293,6 +284,18 @@
   <si>
     <t>Aggregation +
 Problem solving</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>3 hrs over the weekdays for Assignments</t>
+  </si>
+  <si>
+    <t>Commitment</t>
+  </si>
+  <si>
+    <t>4 hrs per weekend (Sat and Sun Combined)</t>
   </si>
 </sst>
 </file>
@@ -699,15 +702,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -732,61 +731,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1102,217 +1100,247 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414B183C-7ED4-45B3-9973-7589FAE35BA1}">
-  <dimension ref="B2:I13"/>
+  <dimension ref="B2:J13"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="C2"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>69</v>
       </c>
-      <c r="I3" t="s">
+      <c r="C3"/>
+      <c r="J3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I4" t="s">
+    <row r="5" spans="2:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="17">
+        <v>1</v>
+      </c>
+      <c r="C6" s="27">
+        <v>45710</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="E6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="18">
+        <v>2</v>
+      </c>
+      <c r="C7" s="28">
+        <v>45711</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="31"/>
+    </row>
+    <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="18">
+        <v>3</v>
+      </c>
+      <c r="C8" s="28">
+        <v>45717</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="31"/>
+    </row>
+    <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="18">
         <v>4</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="C9" s="28">
+        <v>45718</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="18">
         <v>5</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="C10" s="28">
+        <v>45724</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="18">
         <v>6</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="C11" s="28">
+        <v>45725</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="33"/>
+      <c r="H11" s="31"/>
+    </row>
+    <row r="12" spans="2:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="18">
         <v>7</v>
       </c>
-      <c r="I5" s="35" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="24">
-        <v>1</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="14" t="s">
+      <c r="C12" s="28">
+        <v>45731</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="19">
         <v>8</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="36" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="25">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="20"/>
-    </row>
-    <row r="8" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="25">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="25">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="18" t="s">
+      <c r="C13" s="29">
+        <v>45732</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-    </row>
-    <row r="10" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="25">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="25">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" spans="2:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="25">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="26">
-        <v>8</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="34"/>
+      <c r="H13" s="21" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1323,7 +1351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33B0E2C-1E9D-46A7-A2F9-308992FA0D3B}">
   <dimension ref="B1:G27"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1338,291 +1366,291 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="9"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="9"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="9"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="9"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="9"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="9"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="9"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="9"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="9"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="9"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="9"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="9"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="12"/>
+      <c r="C27" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
